--- a/lambda.xlsx
+++ b/lambda.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -101,10 +103,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -269,16 +273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -625,7 +629,7 @@
   <dimension ref="A1:F761"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -647,7 +651,7 @@
       </c>
       <c r="B2" s="2">
         <f>$E$3+($E$4-$E$3)*(A2-$D$3)/($D$4-$D$3)</f>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -659,7 +663,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B66" si="0">$E$3+($E$4-$E$3)*(A3-$D$3)/($D$4-$D$3)</f>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -678,7 +682,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -688,7 +692,7 @@
         <v>410</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -697,7 +701,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>3.6749999999999998</v>
+        <v>3.3149999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -706,7 +710,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
       <c r="D6">
         <f>D3</f>
@@ -727,7 +731,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="D7">
         <f>D6+50</f>
@@ -748,7 +752,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D21" si="3">D7+50</f>
@@ -769,7 +773,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -790,7 +794,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -811,7 +815,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
@@ -832,7 +836,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
@@ -853,7 +857,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
@@ -874,7 +878,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
@@ -895,7 +899,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
@@ -916,7 +920,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
@@ -937,7 +941,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>3.59375</v>
+        <v>3.2437499999999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
@@ -958,7 +962,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>1.6031249999999999</v>
+        <v>1.4981249999999999</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
@@ -979,7 +983,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>3.6749999999999998</v>
+        <v>3.3149999999999999</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
@@ -1000,7 +1004,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>1.8875</v>
+        <v>1.7475000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
@@ -1021,7 +1025,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
@@ -1042,7 +1046,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="4">D21+50</f>
@@ -1063,7 +1067,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1072,7 +1076,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1085,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1090,7 +1094,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>1.5218750000000001</v>
+        <v>1.4268749999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1099,7 +1103,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>3.6343749999999999</v>
+        <v>3.2793749999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1108,7 +1112,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1117,7 +1121,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1126,7 +1130,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1135,7 +1139,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1144,7 +1148,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1153,7 +1157,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1162,7 +1166,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1171,7 +1175,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1180,7 +1184,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1189,7 +1193,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1198,7 +1202,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1207,7 +1211,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1216,7 +1220,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1225,7 +1229,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1234,7 +1238,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1243,7 +1247,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1252,7 +1256,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1261,7 +1265,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1270,7 +1274,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1279,7 +1283,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1288,7 +1292,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1297,7 +1301,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1306,7 +1310,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1315,7 +1319,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1324,7 +1328,7 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>0.79062500000000002</v>
+        <v>0.78562500000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1333,7 +1337,7 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1342,7 +1346,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1351,7 +1355,7 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1360,7 +1364,7 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1369,7 +1373,7 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1378,7 +1382,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1387,7 +1391,7 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>1.359375</v>
+        <v>1.284375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1396,7 +1400,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>1.9281250000000001</v>
+        <v>1.7831250000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1405,7 +1409,7 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1414,7 +1418,7 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1423,7 +1427,7 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1432,7 +1436,7 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1441,7 +1445,7 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1450,7 +1454,7 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>3.1468750000000001</v>
+        <v>2.8518750000000002</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1459,7 +1463,7 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" ref="B67:B130" si="5">$E$3+($E$4-$E$3)*(A67-$D$3)/($D$4-$D$3)</f>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1468,7 +1472,7 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" si="5"/>
-        <v>1.5218750000000001</v>
+        <v>1.4268749999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1477,7 +1481,7 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="5"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1486,7 +1490,7 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" si="5"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1495,7 +1499,7 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" si="5"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1504,7 +1508,7 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" si="5"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1513,7 +1517,7 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" si="5"/>
-        <v>3.7156250000000002</v>
+        <v>3.350625</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1522,7 +1526,7 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" si="5"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1531,7 +1535,7 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" si="5"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1540,7 +1544,7 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" si="5"/>
-        <v>3.2281249999999999</v>
+        <v>2.9231250000000002</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1549,7 +1553,7 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" si="5"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1558,7 +1562,7 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" si="5"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1567,7 +1571,7 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" si="5"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1576,7 +1580,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" si="5"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1585,7 +1589,7 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" si="5"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1594,7 +1598,7 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" si="5"/>
-        <v>3.1468750000000001</v>
+        <v>2.8518750000000002</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1603,7 +1607,7 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" si="5"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1612,7 +1616,7 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" si="5"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1621,7 +1625,7 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" si="5"/>
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1630,7 +1634,7 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" si="5"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1639,7 +1643,7 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" si="5"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1648,7 +1652,7 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" si="5"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1657,7 +1661,7 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" si="5"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1666,7 +1670,7 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" si="5"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1675,7 +1679,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" si="5"/>
-        <v>3.8374999999999999</v>
+        <v>3.4575</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1684,7 +1688,7 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" si="5"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1693,7 +1697,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" si="5"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1702,7 +1706,7 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" si="5"/>
-        <v>1.8062499999999999</v>
+        <v>1.67625</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1711,7 +1715,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" si="5"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1720,7 +1724,7 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" si="5"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1729,7 +1733,7 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" si="5"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1738,7 +1742,7 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" si="5"/>
-        <v>1.9281250000000001</v>
+        <v>1.7831250000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1747,7 +1751,7 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" si="5"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1756,7 +1760,7 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" si="5"/>
-        <v>3.1468750000000001</v>
+        <v>2.8518750000000002</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1765,7 +1769,7 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" si="5"/>
-        <v>1.440625</v>
+        <v>1.3556249999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1774,7 +1778,7 @@
       </c>
       <c r="B102" s="2">
         <f t="shared" si="5"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1783,7 +1787,7 @@
       </c>
       <c r="B103" s="2">
         <f t="shared" si="5"/>
-        <v>1.48125</v>
+        <v>1.3912499999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1792,7 +1796,7 @@
       </c>
       <c r="B104" s="2">
         <f t="shared" si="5"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1801,7 +1805,7 @@
       </c>
       <c r="B105" s="2">
         <f t="shared" si="5"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1810,7 +1814,7 @@
       </c>
       <c r="B106" s="2">
         <f t="shared" si="5"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1819,7 +1823,7 @@
       </c>
       <c r="B107" s="2">
         <f t="shared" si="5"/>
-        <v>1.4</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1828,7 +1832,7 @@
       </c>
       <c r="B108" s="2">
         <f t="shared" si="5"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1837,7 +1841,7 @@
       </c>
       <c r="B109" s="2">
         <f t="shared" si="5"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1846,7 +1850,7 @@
       </c>
       <c r="B110" s="2">
         <f t="shared" si="5"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1855,7 +1859,7 @@
       </c>
       <c r="B111" s="2">
         <f t="shared" si="5"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1864,7 +1868,7 @@
       </c>
       <c r="B112" s="2">
         <f t="shared" si="5"/>
-        <v>0.99375000000000002</v>
+        <v>0.96375</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1873,7 +1877,7 @@
       </c>
       <c r="B113" s="2">
         <f t="shared" si="5"/>
-        <v>3.59375</v>
+        <v>3.2437499999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1882,7 +1886,7 @@
       </c>
       <c r="B114" s="2">
         <f t="shared" si="5"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1891,7 +1895,7 @@
       </c>
       <c r="B115" s="2">
         <f t="shared" si="5"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1900,7 +1904,7 @@
       </c>
       <c r="B116" s="2">
         <f t="shared" si="5"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1909,7 +1913,7 @@
       </c>
       <c r="B117" s="2">
         <f t="shared" si="5"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1918,7 +1922,7 @@
       </c>
       <c r="B118" s="2">
         <f t="shared" si="5"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1927,7 +1931,7 @@
       </c>
       <c r="B119" s="2">
         <f t="shared" si="5"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1936,7 +1940,7 @@
       </c>
       <c r="B120" s="2">
         <f t="shared" si="5"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1945,7 +1949,7 @@
       </c>
       <c r="B121" s="2">
         <f t="shared" si="5"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1954,7 +1958,7 @@
       </c>
       <c r="B122" s="2">
         <f t="shared" si="5"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1963,7 +1967,7 @@
       </c>
       <c r="B123" s="2">
         <f t="shared" si="5"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1972,7 +1976,7 @@
       </c>
       <c r="B124" s="2">
         <f t="shared" si="5"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1981,7 +1985,7 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" si="5"/>
-        <v>3.390625</v>
+        <v>3.0656249999999998</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1990,7 +1994,7 @@
       </c>
       <c r="B126" s="2">
         <f t="shared" si="5"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1999,7 +2003,7 @@
       </c>
       <c r="B127" s="2">
         <f t="shared" si="5"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2008,7 +2012,7 @@
       </c>
       <c r="B128" s="2">
         <f t="shared" si="5"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2017,7 +2021,7 @@
       </c>
       <c r="B129" s="2">
         <f t="shared" si="5"/>
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2026,7 +2030,7 @@
       </c>
       <c r="B130" s="2">
         <f t="shared" si="5"/>
-        <v>1.7250000000000001</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2035,7 +2039,7 @@
       </c>
       <c r="B131" s="2">
         <f t="shared" ref="B131:B194" si="6">$E$3+($E$4-$E$3)*(A131-$D$3)/($D$4-$D$3)</f>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2044,7 +2048,7 @@
       </c>
       <c r="B132" s="2">
         <f t="shared" si="6"/>
-        <v>3.1468750000000001</v>
+        <v>2.8518750000000002</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2053,7 +2057,7 @@
       </c>
       <c r="B133" s="2">
         <f t="shared" si="6"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2062,7 +2066,7 @@
       </c>
       <c r="B134" s="2">
         <f t="shared" si="6"/>
-        <v>1.8062499999999999</v>
+        <v>1.67625</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2071,7 +2075,7 @@
       </c>
       <c r="B135" s="2">
         <f t="shared" si="6"/>
-        <v>2.78125</v>
+        <v>2.53125</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2080,7 +2084,7 @@
       </c>
       <c r="B136" s="2">
         <f t="shared" si="6"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2089,7 +2093,7 @@
       </c>
       <c r="B137" s="2">
         <f t="shared" si="6"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2098,7 +2102,7 @@
       </c>
       <c r="B138" s="2">
         <f t="shared" si="6"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2107,7 +2111,7 @@
       </c>
       <c r="B139" s="2">
         <f t="shared" si="6"/>
-        <v>3.7156250000000002</v>
+        <v>3.350625</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2116,7 +2120,7 @@
       </c>
       <c r="B140" s="2">
         <f t="shared" si="6"/>
-        <v>0.91249999999999998</v>
+        <v>0.89249999999999996</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2125,7 +2129,7 @@
       </c>
       <c r="B141" s="2">
         <f t="shared" si="6"/>
-        <v>3.5125000000000002</v>
+        <v>3.1724999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2134,7 +2138,7 @@
       </c>
       <c r="B142" s="2">
         <f t="shared" si="6"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2143,7 +2147,7 @@
       </c>
       <c r="B143" s="2">
         <f t="shared" si="6"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2152,7 +2156,7 @@
       </c>
       <c r="B144" s="2">
         <f t="shared" si="6"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2161,7 +2165,7 @@
       </c>
       <c r="B145" s="2">
         <f t="shared" si="6"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2170,7 +2174,7 @@
       </c>
       <c r="B146" s="2">
         <f t="shared" si="6"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2179,7 +2183,7 @@
       </c>
       <c r="B147" s="2">
         <f t="shared" si="6"/>
-        <v>3.59375</v>
+        <v>3.2437499999999999</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2188,7 +2192,7 @@
       </c>
       <c r="B148" s="2">
         <f t="shared" si="6"/>
-        <v>2.9031250000000002</v>
+        <v>2.6381250000000001</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2197,7 +2201,7 @@
       </c>
       <c r="B149" s="2">
         <f t="shared" si="6"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2206,7 +2210,7 @@
       </c>
       <c r="B150" s="2">
         <f t="shared" si="6"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2215,7 +2219,7 @@
       </c>
       <c r="B151" s="2">
         <f t="shared" si="6"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2224,7 +2228,7 @@
       </c>
       <c r="B152" s="2">
         <f t="shared" si="6"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2233,7 +2237,7 @@
       </c>
       <c r="B153" s="2">
         <f t="shared" si="6"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2242,7 +2246,7 @@
       </c>
       <c r="B154" s="2">
         <f t="shared" si="6"/>
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2251,7 +2255,7 @@
       </c>
       <c r="B155" s="2">
         <f t="shared" si="6"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2260,7 +2264,7 @@
       </c>
       <c r="B156" s="2">
         <f t="shared" si="6"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2269,7 +2273,7 @@
       </c>
       <c r="B157" s="2">
         <f t="shared" si="6"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2278,7 +2282,7 @@
       </c>
       <c r="B158" s="2">
         <f t="shared" si="6"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2287,7 +2291,7 @@
       </c>
       <c r="B159" s="2">
         <f t="shared" si="6"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2296,7 +2300,7 @@
       </c>
       <c r="B160" s="2">
         <f t="shared" si="6"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2305,7 +2309,7 @@
       </c>
       <c r="B161" s="2">
         <f t="shared" si="6"/>
-        <v>1.440625</v>
+        <v>1.3556249999999999</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2314,7 +2318,7 @@
       </c>
       <c r="B162" s="2">
         <f t="shared" si="6"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2323,7 +2327,7 @@
       </c>
       <c r="B163" s="2">
         <f t="shared" si="6"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2332,7 +2336,7 @@
       </c>
       <c r="B164" s="2">
         <f t="shared" si="6"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2341,7 +2345,7 @@
       </c>
       <c r="B165" s="2">
         <f t="shared" si="6"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2350,7 +2354,7 @@
       </c>
       <c r="B166" s="2">
         <f t="shared" si="6"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2359,7 +2363,7 @@
       </c>
       <c r="B167" s="2">
         <f t="shared" si="6"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2368,7 +2372,7 @@
       </c>
       <c r="B168" s="2">
         <f t="shared" si="6"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2377,7 +2381,7 @@
       </c>
       <c r="B169" s="2">
         <f t="shared" si="6"/>
-        <v>3.390625</v>
+        <v>3.0656249999999998</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2386,7 +2390,7 @@
       </c>
       <c r="B170" s="2">
         <f t="shared" si="6"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2395,7 +2399,7 @@
       </c>
       <c r="B171" s="2">
         <f t="shared" si="6"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2404,7 +2408,7 @@
       </c>
       <c r="B172" s="2">
         <f t="shared" si="6"/>
-        <v>3.2281249999999999</v>
+        <v>2.9231250000000002</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2413,7 +2417,7 @@
       </c>
       <c r="B173" s="2">
         <f t="shared" si="6"/>
-        <v>1.359375</v>
+        <v>1.284375</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2422,7 +2426,7 @@
       </c>
       <c r="B174" s="2">
         <f t="shared" si="6"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2431,7 +2435,7 @@
       </c>
       <c r="B175" s="2">
         <f t="shared" si="6"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2440,7 +2444,7 @@
       </c>
       <c r="B176" s="2">
         <f t="shared" si="6"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2449,7 +2453,7 @@
       </c>
       <c r="B177" s="2">
         <f t="shared" si="6"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2458,7 +2462,7 @@
       </c>
       <c r="B178" s="2">
         <f t="shared" si="6"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2467,7 +2471,7 @@
       </c>
       <c r="B179" s="2">
         <f t="shared" si="6"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2476,7 +2480,7 @@
       </c>
       <c r="B180" s="2">
         <f t="shared" si="6"/>
-        <v>1.64375</v>
+        <v>1.5337499999999999</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2485,7 +2489,7 @@
       </c>
       <c r="B181" s="2">
         <f t="shared" si="6"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2494,7 +2498,7 @@
       </c>
       <c r="B182" s="2">
         <f t="shared" si="6"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2503,7 +2507,7 @@
       </c>
       <c r="B183" s="2">
         <f t="shared" si="6"/>
-        <v>1.48125</v>
+        <v>1.3912499999999999</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2512,7 +2516,7 @@
       </c>
       <c r="B184" s="2">
         <f t="shared" si="6"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2521,7 +2525,7 @@
       </c>
       <c r="B185" s="2">
         <f t="shared" si="6"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2530,7 +2534,7 @@
       </c>
       <c r="B186" s="2">
         <f t="shared" si="6"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2539,7 +2543,7 @@
       </c>
       <c r="B187" s="2">
         <f t="shared" si="6"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2548,7 +2552,7 @@
       </c>
       <c r="B188" s="2">
         <f t="shared" si="6"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2557,7 +2561,7 @@
       </c>
       <c r="B189" s="2">
         <f t="shared" si="6"/>
-        <v>3.6749999999999998</v>
+        <v>3.3149999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2566,7 +2570,7 @@
       </c>
       <c r="B190" s="2">
         <f t="shared" si="6"/>
-        <v>3.6343749999999999</v>
+        <v>3.2793749999999999</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2575,7 +2579,7 @@
       </c>
       <c r="B191" s="2">
         <f t="shared" si="6"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2584,7 +2588,7 @@
       </c>
       <c r="B192" s="2">
         <f t="shared" si="6"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2593,7 +2597,7 @@
       </c>
       <c r="B193" s="2">
         <f t="shared" si="6"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2602,7 +2606,7 @@
       </c>
       <c r="B194" s="2">
         <f t="shared" si="6"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2611,7 +2615,7 @@
       </c>
       <c r="B195" s="2">
         <f t="shared" ref="B195:B258" si="7">$E$3+($E$4-$E$3)*(A195-$D$3)/($D$4-$D$3)</f>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2620,7 +2624,7 @@
       </c>
       <c r="B196" s="2">
         <f t="shared" si="7"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2629,7 +2633,7 @@
       </c>
       <c r="B197" s="2">
         <f t="shared" si="7"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2638,7 +2642,7 @@
       </c>
       <c r="B198" s="2">
         <f t="shared" si="7"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2647,7 +2651,7 @@
       </c>
       <c r="B199" s="2">
         <f t="shared" si="7"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2656,7 +2660,7 @@
       </c>
       <c r="B200" s="2">
         <f t="shared" si="7"/>
-        <v>1.846875</v>
+        <v>1.711875</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2665,7 +2669,7 @@
       </c>
       <c r="B201" s="2">
         <f t="shared" si="7"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2674,7 +2678,7 @@
       </c>
       <c r="B202" s="2">
         <f t="shared" si="7"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2683,7 +2687,7 @@
       </c>
       <c r="B203" s="2">
         <f t="shared" si="7"/>
-        <v>1.440625</v>
+        <v>1.3556249999999999</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2692,7 +2696,7 @@
       </c>
       <c r="B204" s="2">
         <f t="shared" si="7"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2701,7 +2705,7 @@
       </c>
       <c r="B205" s="2">
         <f t="shared" si="7"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2710,7 +2714,7 @@
       </c>
       <c r="B206" s="2">
         <f t="shared" si="7"/>
-        <v>0.91249999999999998</v>
+        <v>0.89249999999999996</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2719,7 +2723,7 @@
       </c>
       <c r="B207" s="2">
         <f t="shared" si="7"/>
-        <v>3.6343749999999999</v>
+        <v>3.2793749999999999</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2728,7 +2732,7 @@
       </c>
       <c r="B208" s="2">
         <f t="shared" si="7"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2737,7 +2741,7 @@
       </c>
       <c r="B209" s="2">
         <f t="shared" si="7"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2746,7 +2750,7 @@
       </c>
       <c r="B210" s="2">
         <f t="shared" si="7"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2755,7 +2759,7 @@
       </c>
       <c r="B211" s="2">
         <f t="shared" si="7"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2764,7 +2768,7 @@
       </c>
       <c r="B212" s="2">
         <f t="shared" si="7"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2773,7 +2777,7 @@
       </c>
       <c r="B213" s="2">
         <f t="shared" si="7"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2782,7 +2786,7 @@
       </c>
       <c r="B214" s="2">
         <f t="shared" si="7"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2791,7 +2795,7 @@
       </c>
       <c r="B215" s="2">
         <f t="shared" si="7"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2800,7 +2804,7 @@
       </c>
       <c r="B216" s="2">
         <f t="shared" si="7"/>
-        <v>1.684375</v>
+        <v>1.569375</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2809,7 +2813,7 @@
       </c>
       <c r="B217" s="2">
         <f t="shared" si="7"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2818,7 +2822,7 @@
       </c>
       <c r="B218" s="2">
         <f t="shared" si="7"/>
-        <v>0.87187499999999996</v>
+        <v>0.85687500000000005</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2827,7 +2831,7 @@
       </c>
       <c r="B219" s="2">
         <f t="shared" si="7"/>
-        <v>3.7562500000000001</v>
+        <v>3.38625</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2836,7 +2840,7 @@
       </c>
       <c r="B220" s="2">
         <f t="shared" si="7"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2845,7 +2849,7 @@
       </c>
       <c r="B221" s="2">
         <f t="shared" si="7"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2854,7 +2858,7 @@
       </c>
       <c r="B222" s="2">
         <f t="shared" si="7"/>
-        <v>3.2281249999999999</v>
+        <v>2.9231250000000002</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2863,7 +2867,7 @@
       </c>
       <c r="B223" s="2">
         <f t="shared" si="7"/>
-        <v>1.440625</v>
+        <v>1.3556249999999999</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2872,7 +2876,7 @@
       </c>
       <c r="B224" s="2">
         <f t="shared" si="7"/>
-        <v>1.846875</v>
+        <v>1.711875</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2881,7 +2885,7 @@
       </c>
       <c r="B225" s="2">
         <f t="shared" si="7"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2890,7 +2894,7 @@
       </c>
       <c r="B226" s="2">
         <f t="shared" si="7"/>
-        <v>2.9031250000000002</v>
+        <v>2.6381250000000001</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2899,7 +2903,7 @@
       </c>
       <c r="B227" s="2">
         <f t="shared" si="7"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2908,7 +2912,7 @@
       </c>
       <c r="B228" s="2">
         <f t="shared" si="7"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2917,7 +2921,7 @@
       </c>
       <c r="B229" s="2">
         <f t="shared" si="7"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2926,7 +2930,7 @@
       </c>
       <c r="B230" s="2">
         <f t="shared" si="7"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2935,7 +2939,7 @@
       </c>
       <c r="B231" s="2">
         <f t="shared" si="7"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2944,7 +2948,7 @@
       </c>
       <c r="B232" s="2">
         <f t="shared" si="7"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2953,7 +2957,7 @@
       </c>
       <c r="B233" s="2">
         <f t="shared" si="7"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2962,7 +2966,7 @@
       </c>
       <c r="B234" s="2">
         <f t="shared" si="7"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2971,7 +2975,7 @@
       </c>
       <c r="B235" s="2">
         <f t="shared" si="7"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2980,7 +2984,7 @@
       </c>
       <c r="B236" s="2">
         <f t="shared" si="7"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2989,7 +2993,7 @@
       </c>
       <c r="B237" s="2">
         <f t="shared" si="7"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2998,7 +3002,7 @@
       </c>
       <c r="B238" s="2">
         <f t="shared" si="7"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3007,7 +3011,7 @@
       </c>
       <c r="B239" s="2">
         <f t="shared" si="7"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3016,7 +3020,7 @@
       </c>
       <c r="B240" s="2">
         <f t="shared" si="7"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3025,7 +3029,7 @@
       </c>
       <c r="B241" s="2">
         <f t="shared" si="7"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3034,7 +3038,7 @@
       </c>
       <c r="B242" s="2">
         <f t="shared" si="7"/>
-        <v>1.7250000000000001</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3043,7 +3047,7 @@
       </c>
       <c r="B243" s="2">
         <f t="shared" si="7"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3052,7 +3056,7 @@
       </c>
       <c r="B244" s="2">
         <f t="shared" si="7"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3061,7 +3065,7 @@
       </c>
       <c r="B245" s="2">
         <f t="shared" si="7"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3070,7 +3074,7 @@
       </c>
       <c r="B246" s="2">
         <f t="shared" si="7"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3079,7 +3083,7 @@
       </c>
       <c r="B247" s="2">
         <f t="shared" si="7"/>
-        <v>1.4</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3088,7 +3092,7 @@
       </c>
       <c r="B248" s="2">
         <f t="shared" si="7"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3097,7 +3101,7 @@
       </c>
       <c r="B249" s="2">
         <f t="shared" si="7"/>
-        <v>3.8781249999999998</v>
+        <v>3.493125</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3106,7 +3110,7 @@
       </c>
       <c r="B250" s="2">
         <f t="shared" si="7"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3115,7 +3119,7 @@
       </c>
       <c r="B251" s="2">
         <f t="shared" si="7"/>
-        <v>3.9593750000000001</v>
+        <v>3.5643750000000001</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3124,7 +3128,7 @@
       </c>
       <c r="B252" s="2">
         <f t="shared" si="7"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3133,7 +3137,7 @@
       </c>
       <c r="B253" s="2">
         <f t="shared" si="7"/>
-        <v>3.6343749999999999</v>
+        <v>3.2793749999999999</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3142,7 +3146,7 @@
       </c>
       <c r="B254" s="2">
         <f t="shared" si="7"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3151,7 +3155,7 @@
       </c>
       <c r="B255" s="2">
         <f t="shared" si="7"/>
-        <v>1.359375</v>
+        <v>1.284375</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3160,7 +3164,7 @@
       </c>
       <c r="B256" s="2">
         <f t="shared" si="7"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3169,7 +3173,7 @@
       </c>
       <c r="B257" s="2">
         <f t="shared" si="7"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3178,7 +3182,7 @@
       </c>
       <c r="B258" s="2">
         <f t="shared" si="7"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3187,7 +3191,7 @@
       </c>
       <c r="B259" s="2">
         <f t="shared" ref="B259:B322" si="8">$E$3+($E$4-$E$3)*(A259-$D$3)/($D$4-$D$3)</f>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3196,7 +3200,7 @@
       </c>
       <c r="B260" s="2">
         <f t="shared" si="8"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3205,7 +3209,7 @@
       </c>
       <c r="B261" s="2">
         <f t="shared" si="8"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3214,7 +3218,7 @@
       </c>
       <c r="B262" s="2">
         <f t="shared" si="8"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3223,7 +3227,7 @@
       </c>
       <c r="B263" s="2">
         <f t="shared" si="8"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3232,7 +3236,7 @@
       </c>
       <c r="B264" s="2">
         <f t="shared" si="8"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3241,7 +3245,7 @@
       </c>
       <c r="B265" s="2">
         <f t="shared" si="8"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3250,7 +3254,7 @@
       </c>
       <c r="B266" s="2">
         <f t="shared" si="8"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3259,7 +3263,7 @@
       </c>
       <c r="B267" s="2">
         <f t="shared" si="8"/>
-        <v>3.6343749999999999</v>
+        <v>3.2793749999999999</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3268,7 +3272,7 @@
       </c>
       <c r="B268" s="2">
         <f t="shared" si="8"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3277,7 +3281,7 @@
       </c>
       <c r="B269" s="2">
         <f t="shared" si="8"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3286,7 +3290,7 @@
       </c>
       <c r="B270" s="2">
         <f t="shared" si="8"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3295,7 +3299,7 @@
       </c>
       <c r="B271" s="2">
         <f t="shared" si="8"/>
-        <v>3.6749999999999998</v>
+        <v>3.3149999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3304,7 +3308,7 @@
       </c>
       <c r="B272" s="2">
         <f t="shared" si="8"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3313,7 +3317,7 @@
       </c>
       <c r="B273" s="2">
         <f t="shared" si="8"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3322,7 +3326,7 @@
       </c>
       <c r="B274" s="2">
         <f t="shared" si="8"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3331,7 +3335,7 @@
       </c>
       <c r="B275" s="2">
         <f t="shared" si="8"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3340,7 +3344,7 @@
       </c>
       <c r="B276" s="2">
         <f t="shared" si="8"/>
-        <v>3.1468750000000001</v>
+        <v>2.8518750000000002</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3349,7 +3353,7 @@
       </c>
       <c r="B277" s="2">
         <f t="shared" si="8"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3358,7 +3362,7 @@
       </c>
       <c r="B278" s="2">
         <f t="shared" si="8"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3367,7 +3371,7 @@
       </c>
       <c r="B279" s="2">
         <f t="shared" si="8"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3376,7 +3380,7 @@
       </c>
       <c r="B280" s="2">
         <f t="shared" si="8"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3385,7 +3389,7 @@
       </c>
       <c r="B281" s="2">
         <f t="shared" si="8"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3394,7 +3398,7 @@
       </c>
       <c r="B282" s="2">
         <f t="shared" si="8"/>
-        <v>1.8875</v>
+        <v>1.7475000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3403,7 +3407,7 @@
       </c>
       <c r="B283" s="2">
         <f t="shared" si="8"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3412,7 +3416,7 @@
       </c>
       <c r="B284" s="2">
         <f t="shared" si="8"/>
-        <v>1.8875</v>
+        <v>1.7475000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3421,7 +3425,7 @@
       </c>
       <c r="B285" s="2">
         <f t="shared" si="8"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3430,7 +3434,7 @@
       </c>
       <c r="B286" s="2">
         <f t="shared" si="8"/>
-        <v>1.765625</v>
+        <v>1.640625</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3439,7 +3443,7 @@
       </c>
       <c r="B287" s="2">
         <f t="shared" si="8"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3448,7 +3452,7 @@
       </c>
       <c r="B288" s="2">
         <f t="shared" si="8"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3457,7 +3461,7 @@
       </c>
       <c r="B289" s="2">
         <f t="shared" si="8"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3466,7 +3470,7 @@
       </c>
       <c r="B290" s="2">
         <f t="shared" si="8"/>
-        <v>1.64375</v>
+        <v>1.5337499999999999</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3475,7 +3479,7 @@
       </c>
       <c r="B291" s="2">
         <f t="shared" si="8"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3484,7 +3488,7 @@
       </c>
       <c r="B292" s="2">
         <f t="shared" si="8"/>
-        <v>1.846875</v>
+        <v>1.711875</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3493,7 +3497,7 @@
       </c>
       <c r="B293" s="2">
         <f t="shared" si="8"/>
-        <v>2.8218749999999999</v>
+        <v>2.566875</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3502,7 +3506,7 @@
       </c>
       <c r="B294" s="2">
         <f t="shared" si="8"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3511,7 +3515,7 @@
       </c>
       <c r="B295" s="2">
         <f t="shared" si="8"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3520,7 +3524,7 @@
       </c>
       <c r="B296" s="2">
         <f t="shared" si="8"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3529,7 +3533,7 @@
       </c>
       <c r="B297" s="2">
         <f t="shared" si="8"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3538,7 +3542,7 @@
       </c>
       <c r="B298" s="2">
         <f t="shared" si="8"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3547,7 +3551,7 @@
       </c>
       <c r="B299" s="2">
         <f t="shared" si="8"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3556,7 +3560,7 @@
       </c>
       <c r="B300" s="2">
         <f t="shared" si="8"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3565,7 +3569,7 @@
       </c>
       <c r="B301" s="2">
         <f t="shared" si="8"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3574,7 +3578,7 @@
       </c>
       <c r="B302" s="2">
         <f t="shared" si="8"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3583,7 +3587,7 @@
       </c>
       <c r="B303" s="2">
         <f t="shared" si="8"/>
-        <v>1.359375</v>
+        <v>1.284375</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3592,7 +3596,7 @@
       </c>
       <c r="B304" s="2">
         <f t="shared" si="8"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3601,7 +3605,7 @@
       </c>
       <c r="B305" s="2">
         <f t="shared" si="8"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3610,7 +3614,7 @@
       </c>
       <c r="B306" s="2">
         <f t="shared" si="8"/>
-        <v>0.87187499999999996</v>
+        <v>0.85687500000000005</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3619,7 +3623,7 @@
       </c>
       <c r="B307" s="2">
         <f t="shared" si="8"/>
-        <v>3.7562500000000001</v>
+        <v>3.38625</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3628,7 +3632,7 @@
       </c>
       <c r="B308" s="2">
         <f t="shared" si="8"/>
-        <v>0.87187499999999996</v>
+        <v>0.85687500000000005</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3637,7 +3641,7 @@
       </c>
       <c r="B309" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3646,7 +3650,7 @@
       </c>
       <c r="B310" s="2">
         <f t="shared" si="8"/>
-        <v>2.8218749999999999</v>
+        <v>2.566875</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3655,7 +3659,7 @@
       </c>
       <c r="B311" s="2">
         <f t="shared" si="8"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3664,7 +3668,7 @@
       </c>
       <c r="B312" s="2">
         <f t="shared" si="8"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3673,7 +3677,7 @@
       </c>
       <c r="B313" s="2">
         <f t="shared" si="8"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3682,7 +3686,7 @@
       </c>
       <c r="B314" s="2">
         <f t="shared" si="8"/>
-        <v>1.846875</v>
+        <v>1.711875</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3691,7 +3695,7 @@
       </c>
       <c r="B315" s="2">
         <f t="shared" si="8"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3700,7 +3704,7 @@
       </c>
       <c r="B316" s="2">
         <f t="shared" si="8"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3709,7 +3713,7 @@
       </c>
       <c r="B317" s="2">
         <f t="shared" si="8"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3718,7 +3722,7 @@
       </c>
       <c r="B318" s="2">
         <f t="shared" si="8"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3727,7 +3731,7 @@
       </c>
       <c r="B319" s="2">
         <f t="shared" si="8"/>
-        <v>3.7562500000000001</v>
+        <v>3.38625</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3736,7 +3740,7 @@
       </c>
       <c r="B320" s="2">
         <f t="shared" si="8"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3745,7 +3749,7 @@
       </c>
       <c r="B321" s="2">
         <f t="shared" si="8"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3754,7 +3758,7 @@
       </c>
       <c r="B322" s="2">
         <f t="shared" si="8"/>
-        <v>2.9031250000000002</v>
+        <v>2.6381250000000001</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3763,7 +3767,7 @@
       </c>
       <c r="B323" s="2">
         <f t="shared" ref="B323:B386" si="9">$E$3+($E$4-$E$3)*(A323-$D$3)/($D$4-$D$3)</f>
-        <v>1.48125</v>
+        <v>1.3912499999999999</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3772,7 +3776,7 @@
       </c>
       <c r="B324" s="2">
         <f t="shared" si="9"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3781,7 +3785,7 @@
       </c>
       <c r="B325" s="2">
         <f t="shared" si="9"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3790,7 +3794,7 @@
       </c>
       <c r="B326" s="2">
         <f t="shared" si="9"/>
-        <v>2.8218749999999999</v>
+        <v>2.566875</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3799,7 +3803,7 @@
       </c>
       <c r="B327" s="2">
         <f t="shared" si="9"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3808,7 +3812,7 @@
       </c>
       <c r="B328" s="2">
         <f t="shared" si="9"/>
-        <v>2.8624999999999998</v>
+        <v>2.6025</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3817,7 +3821,7 @@
       </c>
       <c r="B329" s="2">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3826,7 +3830,7 @@
       </c>
       <c r="B330" s="2">
         <f t="shared" si="9"/>
-        <v>0.91249999999999998</v>
+        <v>0.89249999999999996</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3835,7 +3839,7 @@
       </c>
       <c r="B331" s="2">
         <f t="shared" si="9"/>
-        <v>3.6343749999999999</v>
+        <v>3.2793749999999999</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3844,7 +3848,7 @@
       </c>
       <c r="B332" s="2">
         <f t="shared" si="9"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3853,7 +3857,7 @@
       </c>
       <c r="B333" s="2">
         <f t="shared" si="9"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3862,7 +3866,7 @@
       </c>
       <c r="B334" s="2">
         <f t="shared" si="9"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3871,7 +3875,7 @@
       </c>
       <c r="B335" s="2">
         <f t="shared" si="9"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3880,7 +3884,7 @@
       </c>
       <c r="B336" s="2">
         <f t="shared" si="9"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3889,7 +3893,7 @@
       </c>
       <c r="B337" s="2">
         <f t="shared" si="9"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3898,7 +3902,7 @@
       </c>
       <c r="B338" s="2">
         <f t="shared" si="9"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3907,7 +3911,7 @@
       </c>
       <c r="B339" s="2">
         <f t="shared" si="9"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3916,7 +3920,7 @@
       </c>
       <c r="B340" s="2">
         <f t="shared" si="9"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3925,7 +3929,7 @@
       </c>
       <c r="B341" s="2">
         <f t="shared" si="9"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3934,7 +3938,7 @@
       </c>
       <c r="B342" s="2">
         <f t="shared" si="9"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3943,7 +3947,7 @@
       </c>
       <c r="B343" s="2">
         <f t="shared" si="9"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3952,7 +3956,7 @@
       </c>
       <c r="B344" s="2">
         <f t="shared" si="9"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3961,7 +3965,7 @@
       </c>
       <c r="B345" s="2">
         <f t="shared" si="9"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3970,7 +3974,7 @@
       </c>
       <c r="B346" s="2">
         <f t="shared" si="9"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3979,7 +3983,7 @@
       </c>
       <c r="B347" s="2">
         <f t="shared" si="9"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3988,7 +3992,7 @@
       </c>
       <c r="B348" s="2">
         <f t="shared" si="9"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3997,7 +4001,7 @@
       </c>
       <c r="B349" s="2">
         <f t="shared" si="9"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4006,7 +4010,7 @@
       </c>
       <c r="B350" s="2">
         <f t="shared" si="9"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4015,7 +4019,7 @@
       </c>
       <c r="B351" s="2">
         <f t="shared" si="9"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4024,7 +4028,7 @@
       </c>
       <c r="B352" s="2">
         <f t="shared" si="9"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4033,7 +4037,7 @@
       </c>
       <c r="B353" s="2">
         <f t="shared" si="9"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4042,7 +4046,7 @@
       </c>
       <c r="B354" s="2">
         <f t="shared" si="9"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4051,7 +4055,7 @@
       </c>
       <c r="B355" s="2">
         <f t="shared" si="9"/>
-        <v>3.8374999999999999</v>
+        <v>3.4575</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4060,7 +4064,7 @@
       </c>
       <c r="B356" s="2">
         <f t="shared" si="9"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4069,7 +4073,7 @@
       </c>
       <c r="B357" s="2">
         <f t="shared" si="9"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4078,7 +4082,7 @@
       </c>
       <c r="B358" s="2">
         <f t="shared" si="9"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4087,7 +4091,7 @@
       </c>
       <c r="B359" s="2">
         <f t="shared" si="9"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4096,7 +4100,7 @@
       </c>
       <c r="B360" s="2">
         <f t="shared" si="9"/>
-        <v>2.8624999999999998</v>
+        <v>2.6025</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4105,7 +4109,7 @@
       </c>
       <c r="B361" s="2">
         <f t="shared" si="9"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4114,7 +4118,7 @@
       </c>
       <c r="B362" s="2">
         <f t="shared" si="9"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4123,7 +4127,7 @@
       </c>
       <c r="B363" s="2">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4132,7 +4136,7 @@
       </c>
       <c r="B364" s="2">
         <f t="shared" si="9"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4141,7 +4145,7 @@
       </c>
       <c r="B365" s="2">
         <f t="shared" si="9"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4150,7 +4154,7 @@
       </c>
       <c r="B366" s="2">
         <f t="shared" si="9"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4159,7 +4163,7 @@
       </c>
       <c r="B367" s="2">
         <f t="shared" si="9"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4168,7 +4172,7 @@
       </c>
       <c r="B368" s="2">
         <f t="shared" si="9"/>
-        <v>1.8062499999999999</v>
+        <v>1.67625</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4177,7 +4181,7 @@
       </c>
       <c r="B369" s="2">
         <f t="shared" si="9"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4186,7 +4190,7 @@
       </c>
       <c r="B370" s="2">
         <f t="shared" si="9"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4195,7 +4199,7 @@
       </c>
       <c r="B371" s="2">
         <f t="shared" si="9"/>
-        <v>3.5125000000000002</v>
+        <v>3.1724999999999999</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4204,7 +4208,7 @@
       </c>
       <c r="B372" s="2">
         <f t="shared" si="9"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4213,7 +4217,7 @@
       </c>
       <c r="B373" s="2">
         <f t="shared" si="9"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4222,7 +4226,7 @@
       </c>
       <c r="B374" s="2">
         <f t="shared" si="9"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4231,7 +4235,7 @@
       </c>
       <c r="B375" s="2">
         <f t="shared" si="9"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4240,7 +4244,7 @@
       </c>
       <c r="B376" s="2">
         <f t="shared" si="9"/>
-        <v>1.5625</v>
+        <v>1.4624999999999999</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4249,7 +4253,7 @@
       </c>
       <c r="B377" s="2">
         <f t="shared" si="9"/>
-        <v>3.390625</v>
+        <v>3.0656249999999998</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4258,7 +4262,7 @@
       </c>
       <c r="B378" s="2">
         <f t="shared" si="9"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4267,7 +4271,7 @@
       </c>
       <c r="B379" s="2">
         <f t="shared" si="9"/>
-        <v>2.8218749999999999</v>
+        <v>2.566875</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4276,7 +4280,7 @@
       </c>
       <c r="B380" s="2">
         <f t="shared" si="9"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4285,7 +4289,7 @@
       </c>
       <c r="B381" s="2">
         <f t="shared" si="9"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4294,7 +4298,7 @@
       </c>
       <c r="B382" s="2">
         <f t="shared" si="9"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4303,7 +4307,7 @@
       </c>
       <c r="B383" s="2">
         <f t="shared" si="9"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4312,7 +4316,7 @@
       </c>
       <c r="B384" s="2">
         <f t="shared" si="9"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4321,7 +4325,7 @@
       </c>
       <c r="B385" s="2">
         <f t="shared" si="9"/>
-        <v>1.48125</v>
+        <v>1.3912499999999999</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4330,7 +4334,7 @@
       </c>
       <c r="B386" s="2">
         <f t="shared" si="9"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4339,7 +4343,7 @@
       </c>
       <c r="B387" s="2">
         <f t="shared" ref="B387:B450" si="10">$E$3+($E$4-$E$3)*(A387-$D$3)/($D$4-$D$3)</f>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4348,7 +4352,7 @@
       </c>
       <c r="B388" s="2">
         <f t="shared" si="10"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4357,7 +4361,7 @@
       </c>
       <c r="B389" s="2">
         <f t="shared" si="10"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4366,7 +4370,7 @@
       </c>
       <c r="B390" s="2">
         <f t="shared" si="10"/>
-        <v>2.8624999999999998</v>
+        <v>2.6025</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4375,7 +4379,7 @@
       </c>
       <c r="B391" s="2">
         <f t="shared" si="10"/>
-        <v>1.359375</v>
+        <v>1.284375</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4384,7 +4388,7 @@
       </c>
       <c r="B392" s="2">
         <f t="shared" si="10"/>
-        <v>1.5625</v>
+        <v>1.4624999999999999</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4393,7 +4397,7 @@
       </c>
       <c r="B393" s="2">
         <f t="shared" si="10"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4402,7 +4406,7 @@
       </c>
       <c r="B394" s="2">
         <f t="shared" si="10"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4411,7 +4415,7 @@
       </c>
       <c r="B395" s="2">
         <f t="shared" si="10"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4420,7 +4424,7 @@
       </c>
       <c r="B396" s="2">
         <f t="shared" si="10"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4429,7 +4433,7 @@
       </c>
       <c r="B397" s="2">
         <f t="shared" si="10"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4438,7 +4442,7 @@
       </c>
       <c r="B398" s="2">
         <f t="shared" si="10"/>
-        <v>0.83125000000000004</v>
+        <v>0.82125000000000004</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4447,7 +4451,7 @@
       </c>
       <c r="B399" s="2">
         <f t="shared" si="10"/>
-        <v>3.7156250000000002</v>
+        <v>3.350625</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4456,7 +4460,7 @@
       </c>
       <c r="B400" s="2">
         <f t="shared" si="10"/>
-        <v>1.8062499999999999</v>
+        <v>1.67625</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4465,7 +4469,7 @@
       </c>
       <c r="B401" s="2">
         <f t="shared" si="10"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4474,7 +4478,7 @@
       </c>
       <c r="B402" s="2">
         <f t="shared" si="10"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4483,7 +4487,7 @@
       </c>
       <c r="B403" s="2">
         <f t="shared" si="10"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4492,7 +4496,7 @@
       </c>
       <c r="B404" s="2">
         <f t="shared" si="10"/>
-        <v>3.5125000000000002</v>
+        <v>3.1724999999999999</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4501,7 +4505,7 @@
       </c>
       <c r="B405" s="2">
         <f t="shared" si="10"/>
-        <v>1.4</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4510,7 +4514,7 @@
       </c>
       <c r="B406" s="2">
         <f t="shared" si="10"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4519,7 +4523,7 @@
       </c>
       <c r="B407" s="2">
         <f t="shared" si="10"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4528,7 +4532,7 @@
       </c>
       <c r="B408" s="2">
         <f t="shared" si="10"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4537,7 +4541,7 @@
       </c>
       <c r="B409" s="2">
         <f t="shared" si="10"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4546,7 +4550,7 @@
       </c>
       <c r="B410" s="2">
         <f t="shared" si="10"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4555,7 +4559,7 @@
       </c>
       <c r="B411" s="2">
         <f t="shared" si="10"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4564,7 +4568,7 @@
       </c>
       <c r="B412" s="2">
         <f t="shared" si="10"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4573,7 +4577,7 @@
       </c>
       <c r="B413" s="2">
         <f t="shared" si="10"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4582,7 +4586,7 @@
       </c>
       <c r="B414" s="2">
         <f t="shared" si="10"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4591,7 +4595,7 @@
       </c>
       <c r="B415" s="2">
         <f t="shared" si="10"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -4600,7 +4604,7 @@
       </c>
       <c r="B416" s="2">
         <f t="shared" si="10"/>
-        <v>3.59375</v>
+        <v>3.2437499999999999</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -4609,7 +4613,7 @@
       </c>
       <c r="B417" s="2">
         <f t="shared" si="10"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -4618,7 +4622,7 @@
       </c>
       <c r="B418" s="2">
         <f t="shared" si="10"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -4627,7 +4631,7 @@
       </c>
       <c r="B419" s="2">
         <f t="shared" si="10"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -4636,7 +4640,7 @@
       </c>
       <c r="B420" s="2">
         <f t="shared" si="10"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -4645,7 +4649,7 @@
       </c>
       <c r="B421" s="2">
         <f t="shared" si="10"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -4654,7 +4658,7 @@
       </c>
       <c r="B422" s="2">
         <f t="shared" si="10"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -4663,7 +4667,7 @@
       </c>
       <c r="B423" s="2">
         <f t="shared" si="10"/>
-        <v>3.5125000000000002</v>
+        <v>3.1724999999999999</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -4672,7 +4676,7 @@
       </c>
       <c r="B424" s="2">
         <f t="shared" si="10"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -4681,7 +4685,7 @@
       </c>
       <c r="B425" s="2">
         <f t="shared" si="10"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -4690,7 +4694,7 @@
       </c>
       <c r="B426" s="2">
         <f t="shared" si="10"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -4699,7 +4703,7 @@
       </c>
       <c r="B427" s="2">
         <f t="shared" si="10"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -4708,7 +4712,7 @@
       </c>
       <c r="B428" s="2">
         <f t="shared" si="10"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -4717,7 +4721,7 @@
       </c>
       <c r="B429" s="2">
         <f t="shared" si="10"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -4726,7 +4730,7 @@
       </c>
       <c r="B430" s="2">
         <f t="shared" si="10"/>
-        <v>2.78125</v>
+        <v>2.53125</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -4735,7 +4739,7 @@
       </c>
       <c r="B431" s="2">
         <f t="shared" si="10"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -4744,7 +4748,7 @@
       </c>
       <c r="B432" s="2">
         <f t="shared" si="10"/>
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -4753,7 +4757,7 @@
       </c>
       <c r="B433" s="2">
         <f t="shared" si="10"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -4762,7 +4766,7 @@
       </c>
       <c r="B434" s="2">
         <f t="shared" si="10"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -4771,7 +4775,7 @@
       </c>
       <c r="B435" s="2">
         <f t="shared" si="10"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -4780,7 +4784,7 @@
       </c>
       <c r="B436" s="2">
         <f t="shared" si="10"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -4789,7 +4793,7 @@
       </c>
       <c r="B437" s="2">
         <f t="shared" si="10"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -4798,7 +4802,7 @@
       </c>
       <c r="B438" s="2">
         <f t="shared" si="10"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -4807,7 +4811,7 @@
       </c>
       <c r="B439" s="2">
         <f t="shared" si="10"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -4816,7 +4820,7 @@
       </c>
       <c r="B440" s="2">
         <f t="shared" si="10"/>
-        <v>0.91249999999999998</v>
+        <v>0.89249999999999996</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -4825,7 +4829,7 @@
       </c>
       <c r="B441" s="2">
         <f t="shared" si="10"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4834,7 +4838,7 @@
       </c>
       <c r="B442" s="2">
         <f t="shared" si="10"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -4843,7 +4847,7 @@
       </c>
       <c r="B443" s="2">
         <f t="shared" si="10"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -4852,7 +4856,7 @@
       </c>
       <c r="B444" s="2">
         <f t="shared" si="10"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4861,7 +4865,7 @@
       </c>
       <c r="B445" s="2">
         <f t="shared" si="10"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -4870,7 +4874,7 @@
       </c>
       <c r="B446" s="2">
         <f t="shared" si="10"/>
-        <v>0.91249999999999998</v>
+        <v>0.89249999999999996</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -4879,7 +4883,7 @@
       </c>
       <c r="B447" s="2">
         <f t="shared" si="10"/>
-        <v>3.6343749999999999</v>
+        <v>3.2793749999999999</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -4888,7 +4892,7 @@
       </c>
       <c r="B448" s="2">
         <f t="shared" si="10"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4897,7 +4901,7 @@
       </c>
       <c r="B449" s="2">
         <f t="shared" si="10"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4906,7 +4910,7 @@
       </c>
       <c r="B450" s="2">
         <f t="shared" si="10"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4915,7 +4919,7 @@
       </c>
       <c r="B451" s="2">
         <f t="shared" ref="B451:B514" si="11">$E$3+($E$4-$E$3)*(A451-$D$3)/($D$4-$D$3)</f>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4924,7 +4928,7 @@
       </c>
       <c r="B452" s="2">
         <f t="shared" si="11"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4933,7 +4937,7 @@
       </c>
       <c r="B453" s="2">
         <f t="shared" si="11"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4942,7 +4946,7 @@
       </c>
       <c r="B454" s="2">
         <f t="shared" si="11"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4951,7 +4955,7 @@
       </c>
       <c r="B455" s="2">
         <f t="shared" si="11"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4960,7 +4964,7 @@
       </c>
       <c r="B456" s="2">
         <f t="shared" si="11"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4969,7 +4973,7 @@
       </c>
       <c r="B457" s="2">
         <f t="shared" si="11"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4978,7 +4982,7 @@
       </c>
       <c r="B458" s="2">
         <f t="shared" si="11"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4987,7 +4991,7 @@
       </c>
       <c r="B459" s="2">
         <f t="shared" si="11"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4996,7 +5000,7 @@
       </c>
       <c r="B460" s="2">
         <f t="shared" si="11"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5005,7 +5009,7 @@
       </c>
       <c r="B461" s="2">
         <f t="shared" si="11"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5014,7 +5018,7 @@
       </c>
       <c r="B462" s="2">
         <f t="shared" si="11"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5023,7 +5027,7 @@
       </c>
       <c r="B463" s="2">
         <f t="shared" si="11"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5032,7 +5036,7 @@
       </c>
       <c r="B464" s="2">
         <f t="shared" si="11"/>
-        <v>0.99375000000000002</v>
+        <v>0.96375</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5041,7 +5045,7 @@
       </c>
       <c r="B465" s="2">
         <f t="shared" si="11"/>
-        <v>3.59375</v>
+        <v>3.2437499999999999</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5050,7 +5054,7 @@
       </c>
       <c r="B466" s="2">
         <f t="shared" si="11"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5059,7 +5063,7 @@
       </c>
       <c r="B467" s="2">
         <f t="shared" si="11"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5068,7 +5072,7 @@
       </c>
       <c r="B468" s="2">
         <f t="shared" si="11"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5077,7 +5081,7 @@
       </c>
       <c r="B469" s="2">
         <f t="shared" si="11"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5086,7 +5090,7 @@
       </c>
       <c r="B470" s="2">
         <f t="shared" si="11"/>
-        <v>1.9281250000000001</v>
+        <v>1.7831250000000001</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5095,7 +5099,7 @@
       </c>
       <c r="B471" s="2">
         <f t="shared" si="11"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5104,7 +5108,7 @@
       </c>
       <c r="B472" s="2">
         <f t="shared" si="11"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5113,7 +5117,7 @@
       </c>
       <c r="B473" s="2">
         <f t="shared" si="11"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5122,7 +5126,7 @@
       </c>
       <c r="B474" s="2">
         <f t="shared" si="11"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5131,7 +5135,7 @@
       </c>
       <c r="B475" s="2">
         <f t="shared" si="11"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5140,7 +5144,7 @@
       </c>
       <c r="B476" s="2">
         <f t="shared" si="11"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5149,7 +5153,7 @@
       </c>
       <c r="B477" s="2">
         <f t="shared" si="11"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5158,7 +5162,7 @@
       </c>
       <c r="B478" s="2">
         <f t="shared" si="11"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5167,7 +5171,7 @@
       </c>
       <c r="B479" s="2">
         <f t="shared" si="11"/>
-        <v>3.7156250000000002</v>
+        <v>3.350625</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5176,7 +5180,7 @@
       </c>
       <c r="B480" s="2">
         <f t="shared" si="11"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5185,7 +5189,7 @@
       </c>
       <c r="B481" s="2">
         <f t="shared" si="11"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5194,7 +5198,7 @@
       </c>
       <c r="B482" s="2">
         <f t="shared" si="11"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5203,7 +5207,7 @@
       </c>
       <c r="B483" s="2">
         <f t="shared" si="11"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5212,7 +5216,7 @@
       </c>
       <c r="B484" s="2">
         <f t="shared" si="11"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5221,7 +5225,7 @@
       </c>
       <c r="B485" s="2">
         <f t="shared" si="11"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5230,7 +5234,7 @@
       </c>
       <c r="B486" s="2">
         <f t="shared" si="11"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5239,7 +5243,7 @@
       </c>
       <c r="B487" s="2">
         <f t="shared" si="11"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5248,7 +5252,7 @@
       </c>
       <c r="B488" s="2">
         <f t="shared" si="11"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5257,7 +5261,7 @@
       </c>
       <c r="B489" s="2">
         <f t="shared" si="11"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -5266,7 +5270,7 @@
       </c>
       <c r="B490" s="2">
         <f t="shared" si="11"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -5275,7 +5279,7 @@
       </c>
       <c r="B491" s="2">
         <f t="shared" si="11"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -5284,7 +5288,7 @@
       </c>
       <c r="B492" s="2">
         <f t="shared" si="11"/>
-        <v>1.64375</v>
+        <v>1.5337499999999999</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -5293,7 +5297,7 @@
       </c>
       <c r="B493" s="2">
         <f t="shared" si="11"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -5302,7 +5306,7 @@
       </c>
       <c r="B494" s="2">
         <f t="shared" si="11"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -5311,7 +5315,7 @@
       </c>
       <c r="B495" s="2">
         <f t="shared" si="11"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -5320,7 +5324,7 @@
       </c>
       <c r="B496" s="2">
         <f t="shared" si="11"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -5329,7 +5333,7 @@
       </c>
       <c r="B497" s="2">
         <f t="shared" si="11"/>
-        <v>1.359375</v>
+        <v>1.284375</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -5338,7 +5342,7 @@
       </c>
       <c r="B498" s="2">
         <f t="shared" si="11"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -5347,7 +5351,7 @@
       </c>
       <c r="B499" s="2">
         <f t="shared" si="11"/>
-        <v>3.5125000000000002</v>
+        <v>3.1724999999999999</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -5356,7 +5360,7 @@
       </c>
       <c r="B500" s="2">
         <f t="shared" si="11"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -5365,7 +5369,7 @@
       </c>
       <c r="B501" s="2">
         <f t="shared" si="11"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -5374,7 +5378,7 @@
       </c>
       <c r="B502" s="2">
         <f t="shared" si="11"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -5383,7 +5387,7 @@
       </c>
       <c r="B503" s="2">
         <f t="shared" si="11"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -5392,7 +5396,7 @@
       </c>
       <c r="B504" s="2">
         <f t="shared" si="11"/>
-        <v>2.8624999999999998</v>
+        <v>2.6025</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -5401,7 +5405,7 @@
       </c>
       <c r="B505" s="2">
         <f t="shared" si="11"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -5410,7 +5414,7 @@
       </c>
       <c r="B506" s="2">
         <f t="shared" si="11"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -5419,7 +5423,7 @@
       </c>
       <c r="B507" s="2">
         <f t="shared" si="11"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -5428,7 +5432,7 @@
       </c>
       <c r="B508" s="2">
         <f t="shared" si="11"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -5437,7 +5441,7 @@
       </c>
       <c r="B509" s="2">
         <f t="shared" si="11"/>
-        <v>2.78125</v>
+        <v>2.53125</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -5446,7 +5450,7 @@
       </c>
       <c r="B510" s="2">
         <f t="shared" si="11"/>
-        <v>0.87187499999999996</v>
+        <v>0.85687500000000005</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -5455,7 +5459,7 @@
       </c>
       <c r="B511" s="2">
         <f t="shared" si="11"/>
-        <v>3.8374999999999999</v>
+        <v>3.4575</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -5464,7 +5468,7 @@
       </c>
       <c r="B512" s="2">
         <f t="shared" si="11"/>
-        <v>1.8875</v>
+        <v>1.7475000000000001</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -5473,7 +5477,7 @@
       </c>
       <c r="B513" s="2">
         <f t="shared" si="11"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -5482,7 +5486,7 @@
       </c>
       <c r="B514" s="2">
         <f t="shared" si="11"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -5491,7 +5495,7 @@
       </c>
       <c r="B515" s="2">
         <f t="shared" ref="B515:B578" si="12">$E$3+($E$4-$E$3)*(A515-$D$3)/($D$4-$D$3)</f>
-        <v>3.6749999999999998</v>
+        <v>3.3149999999999999</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -5500,7 +5504,7 @@
       </c>
       <c r="B516" s="2">
         <f t="shared" si="12"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -5509,7 +5513,7 @@
       </c>
       <c r="B517" s="2">
         <f t="shared" si="12"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -5518,7 +5522,7 @@
       </c>
       <c r="B518" s="2">
         <f t="shared" si="12"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -5527,7 +5531,7 @@
       </c>
       <c r="B519" s="2">
         <f t="shared" si="12"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -5536,7 +5540,7 @@
       </c>
       <c r="B520" s="2">
         <f t="shared" si="12"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -5545,7 +5549,7 @@
       </c>
       <c r="B521" s="2">
         <f t="shared" si="12"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -5554,7 +5558,7 @@
       </c>
       <c r="B522" s="2">
         <f t="shared" si="12"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -5563,7 +5567,7 @@
       </c>
       <c r="B523" s="2">
         <f t="shared" si="12"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -5572,7 +5576,7 @@
       </c>
       <c r="B524" s="2">
         <f t="shared" si="12"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -5581,7 +5585,7 @@
       </c>
       <c r="B525" s="2">
         <f t="shared" si="12"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -5590,7 +5594,7 @@
       </c>
       <c r="B526" s="2">
         <f t="shared" si="12"/>
-        <v>0.87187499999999996</v>
+        <v>0.85687500000000005</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -5599,7 +5603,7 @@
       </c>
       <c r="B527" s="2">
         <f t="shared" si="12"/>
-        <v>3.5125000000000002</v>
+        <v>3.1724999999999999</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -5608,7 +5612,7 @@
       </c>
       <c r="B528" s="2">
         <f t="shared" si="12"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -5617,7 +5621,7 @@
       </c>
       <c r="B529" s="2">
         <f t="shared" si="12"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -5626,7 +5630,7 @@
       </c>
       <c r="B530" s="2">
         <f t="shared" si="12"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -5635,7 +5639,7 @@
       </c>
       <c r="B531" s="2">
         <f t="shared" si="12"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -5644,7 +5648,7 @@
       </c>
       <c r="B532" s="2">
         <f t="shared" si="12"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -5653,7 +5657,7 @@
       </c>
       <c r="B533" s="2">
         <f t="shared" si="12"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -5662,7 +5666,7 @@
       </c>
       <c r="B534" s="2">
         <f t="shared" si="12"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -5671,7 +5675,7 @@
       </c>
       <c r="B535" s="2">
         <f t="shared" si="12"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -5680,7 +5684,7 @@
       </c>
       <c r="B536" s="2">
         <f t="shared" si="12"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -5689,7 +5693,7 @@
       </c>
       <c r="B537" s="2">
         <f t="shared" si="12"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -5698,7 +5702,7 @@
       </c>
       <c r="B538" s="2">
         <f t="shared" si="12"/>
-        <v>2.9031250000000002</v>
+        <v>2.6381250000000001</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -5707,7 +5711,7 @@
       </c>
       <c r="B539" s="2">
         <f t="shared" si="12"/>
-        <v>3.2281249999999999</v>
+        <v>2.9231250000000002</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -5716,7 +5720,7 @@
       </c>
       <c r="B540" s="2">
         <f t="shared" si="12"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -5725,7 +5729,7 @@
       </c>
       <c r="B541" s="2">
         <f t="shared" si="12"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -5734,7 +5738,7 @@
       </c>
       <c r="B542" s="2">
         <f t="shared" si="12"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -5743,7 +5747,7 @@
       </c>
       <c r="B543" s="2">
         <f t="shared" si="12"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -5752,7 +5756,7 @@
       </c>
       <c r="B544" s="2">
         <f t="shared" si="12"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -5761,7 +5765,7 @@
       </c>
       <c r="B545" s="2">
         <f t="shared" si="12"/>
-        <v>3.9187500000000002</v>
+        <v>3.5287500000000001</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -5770,7 +5774,7 @@
       </c>
       <c r="B546" s="2">
         <f t="shared" si="12"/>
-        <v>1.846875</v>
+        <v>1.711875</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -5779,7 +5783,7 @@
       </c>
       <c r="B547" s="2">
         <f t="shared" si="12"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -5788,7 +5792,7 @@
       </c>
       <c r="B548" s="2">
         <f t="shared" si="12"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -5797,7 +5801,7 @@
       </c>
       <c r="B549" s="2">
         <f t="shared" si="12"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -5806,7 +5810,7 @@
       </c>
       <c r="B550" s="2">
         <f t="shared" si="12"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -5815,7 +5819,7 @@
       </c>
       <c r="B551" s="2">
         <f t="shared" si="12"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -5824,7 +5828,7 @@
       </c>
       <c r="B552" s="2">
         <f t="shared" si="12"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -5833,7 +5837,7 @@
       </c>
       <c r="B553" s="2">
         <f t="shared" si="12"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -5842,7 +5846,7 @@
       </c>
       <c r="B554" s="2">
         <f t="shared" si="12"/>
-        <v>1.8875</v>
+        <v>1.7475000000000001</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -5851,7 +5855,7 @@
       </c>
       <c r="B555" s="2">
         <f t="shared" si="12"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -5860,7 +5864,7 @@
       </c>
       <c r="B556" s="2">
         <f t="shared" si="12"/>
-        <v>0.79062500000000002</v>
+        <v>0.78562500000000002</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -5869,7 +5873,7 @@
       </c>
       <c r="B557" s="2">
         <f t="shared" si="12"/>
-        <v>3.9593750000000001</v>
+        <v>3.5643750000000001</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -5878,7 +5882,7 @@
       </c>
       <c r="B558" s="2">
         <f t="shared" si="12"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -5887,7 +5891,7 @@
       </c>
       <c r="B559" s="2">
         <f t="shared" si="12"/>
-        <v>3.59375</v>
+        <v>3.2437499999999999</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -5896,7 +5900,7 @@
       </c>
       <c r="B560" s="2">
         <f t="shared" si="12"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -5905,7 +5909,7 @@
       </c>
       <c r="B561" s="2">
         <f t="shared" si="12"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -5914,7 +5918,7 @@
       </c>
       <c r="B562" s="2">
         <f t="shared" si="12"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -5923,7 +5927,7 @@
       </c>
       <c r="B563" s="2">
         <f t="shared" si="12"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -5932,7 +5936,7 @@
       </c>
       <c r="B564" s="2">
         <f t="shared" si="12"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -5941,7 +5945,7 @@
       </c>
       <c r="B565" s="2">
         <f t="shared" si="12"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -5950,7 +5954,7 @@
       </c>
       <c r="B566" s="2">
         <f t="shared" si="12"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -5959,7 +5963,7 @@
       </c>
       <c r="B567" s="2">
         <f t="shared" si="12"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -5968,7 +5972,7 @@
       </c>
       <c r="B568" s="2">
         <f t="shared" si="12"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5977,7 +5981,7 @@
       </c>
       <c r="B569" s="2">
         <f t="shared" si="12"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -5986,7 +5990,7 @@
       </c>
       <c r="B570" s="2">
         <f t="shared" si="12"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -5995,7 +5999,7 @@
       </c>
       <c r="B571" s="2">
         <f t="shared" si="12"/>
-        <v>3.9187500000000002</v>
+        <v>3.5287500000000001</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -6004,7 +6008,7 @@
       </c>
       <c r="B572" s="2">
         <f t="shared" si="12"/>
-        <v>1.9281250000000001</v>
+        <v>1.7831250000000001</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -6013,7 +6017,7 @@
       </c>
       <c r="B573" s="2">
         <f t="shared" si="12"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -6022,7 +6026,7 @@
       </c>
       <c r="B574" s="2">
         <f t="shared" si="12"/>
-        <v>1.7250000000000001</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -6031,7 +6035,7 @@
       </c>
       <c r="B575" s="2">
         <f t="shared" si="12"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -6040,7 +6044,7 @@
       </c>
       <c r="B576" s="2">
         <f t="shared" si="12"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -6049,7 +6053,7 @@
       </c>
       <c r="B577" s="2">
         <f t="shared" si="12"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -6058,7 +6062,7 @@
       </c>
       <c r="B578" s="2">
         <f t="shared" si="12"/>
-        <v>2.8218749999999999</v>
+        <v>2.566875</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -6067,7 +6071,7 @@
       </c>
       <c r="B579" s="2">
         <f t="shared" ref="B579:B642" si="13">$E$3+($E$4-$E$3)*(A579-$D$3)/($D$4-$D$3)</f>
-        <v>1.359375</v>
+        <v>1.284375</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -6076,7 +6080,7 @@
       </c>
       <c r="B580" s="2">
         <f t="shared" si="13"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -6085,7 +6089,7 @@
       </c>
       <c r="B581" s="2">
         <f t="shared" si="13"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -6094,7 +6098,7 @@
       </c>
       <c r="B582" s="2">
         <f t="shared" si="13"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -6103,7 +6107,7 @@
       </c>
       <c r="B583" s="2">
         <f t="shared" si="13"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -6112,7 +6116,7 @@
       </c>
       <c r="B584" s="2">
         <f t="shared" si="13"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -6121,7 +6125,7 @@
       </c>
       <c r="B585" s="2">
         <f t="shared" si="13"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -6130,7 +6134,7 @@
       </c>
       <c r="B586" s="2">
         <f t="shared" si="13"/>
-        <v>2.9437500000000001</v>
+        <v>2.6737500000000001</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -6139,7 +6143,7 @@
       </c>
       <c r="B587" s="2">
         <f t="shared" si="13"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -6148,7 +6152,7 @@
       </c>
       <c r="B588" s="2">
         <f t="shared" si="13"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -6157,7 +6161,7 @@
       </c>
       <c r="B589" s="2">
         <f t="shared" si="13"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -6166,7 +6170,7 @@
       </c>
       <c r="B590" s="2">
         <f t="shared" si="13"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -6175,7 +6179,7 @@
       </c>
       <c r="B591" s="2">
         <f t="shared" si="13"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -6184,7 +6188,7 @@
       </c>
       <c r="B592" s="2">
         <f t="shared" si="13"/>
-        <v>3.2281249999999999</v>
+        <v>2.9231250000000002</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -6193,7 +6197,7 @@
       </c>
       <c r="B593" s="2">
         <f t="shared" si="13"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -6202,7 +6206,7 @@
       </c>
       <c r="B594" s="2">
         <f t="shared" si="13"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -6211,7 +6215,7 @@
       </c>
       <c r="B595" s="2">
         <f t="shared" si="13"/>
-        <v>0.99375000000000002</v>
+        <v>0.96375</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -6220,7 +6224,7 @@
       </c>
       <c r="B596" s="2">
         <f t="shared" si="13"/>
-        <v>1.9281250000000001</v>
+        <v>1.7831250000000001</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -6229,7 +6233,7 @@
       </c>
       <c r="B597" s="2">
         <f t="shared" si="13"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -6238,7 +6242,7 @@
       </c>
       <c r="B598" s="2">
         <f t="shared" si="13"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -6247,7 +6251,7 @@
       </c>
       <c r="B599" s="2">
         <f t="shared" si="13"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -6256,7 +6260,7 @@
       </c>
       <c r="B600" s="2">
         <f t="shared" si="13"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -6265,7 +6269,7 @@
       </c>
       <c r="B601" s="2">
         <f t="shared" si="13"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -6274,7 +6278,7 @@
       </c>
       <c r="B602" s="2">
         <f t="shared" si="13"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -6283,7 +6287,7 @@
       </c>
       <c r="B603" s="2">
         <f t="shared" si="13"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -6292,7 +6296,7 @@
       </c>
       <c r="B604" s="2">
         <f t="shared" si="13"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -6301,7 +6305,7 @@
       </c>
       <c r="B605" s="2">
         <f t="shared" si="13"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -6310,7 +6314,7 @@
       </c>
       <c r="B606" s="2">
         <f t="shared" si="13"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -6319,7 +6323,7 @@
       </c>
       <c r="B607" s="2">
         <f t="shared" si="13"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -6328,7 +6332,7 @@
       </c>
       <c r="B608" s="2">
         <f t="shared" si="13"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -6337,7 +6341,7 @@
       </c>
       <c r="B609" s="2">
         <f t="shared" si="13"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -6346,7 +6350,7 @@
       </c>
       <c r="B610" s="2">
         <f t="shared" si="13"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -6355,7 +6359,7 @@
       </c>
       <c r="B611" s="2">
         <f t="shared" si="13"/>
-        <v>0.99375000000000002</v>
+        <v>0.96375</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -6364,7 +6368,7 @@
       </c>
       <c r="B612" s="2">
         <f t="shared" si="13"/>
-        <v>2.4562499999999998</v>
+        <v>2.2462499999999999</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -6373,7 +6377,7 @@
       </c>
       <c r="B613" s="2">
         <f t="shared" si="13"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -6382,7 +6386,7 @@
       </c>
       <c r="B614" s="2">
         <f t="shared" si="13"/>
-        <v>0.99375000000000002</v>
+        <v>0.96375</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -6391,7 +6395,7 @@
       </c>
       <c r="B615" s="2">
         <f t="shared" si="13"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -6400,7 +6404,7 @@
       </c>
       <c r="B616" s="2">
         <f t="shared" si="13"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -6409,7 +6413,7 @@
       </c>
       <c r="B617" s="2">
         <f t="shared" si="13"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -6418,7 +6422,7 @@
       </c>
       <c r="B618" s="2">
         <f t="shared" si="13"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -6427,7 +6431,7 @@
       </c>
       <c r="B619" s="2">
         <f t="shared" si="13"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -6436,7 +6440,7 @@
       </c>
       <c r="B620" s="2">
         <f t="shared" si="13"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -6445,7 +6449,7 @@
       </c>
       <c r="B621" s="2">
         <f t="shared" si="13"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -6454,7 +6458,7 @@
       </c>
       <c r="B622" s="2">
         <f t="shared" si="13"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -6463,7 +6467,7 @@
       </c>
       <c r="B623" s="2">
         <f t="shared" si="13"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -6472,7 +6476,7 @@
       </c>
       <c r="B624" s="2">
         <f t="shared" si="13"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -6481,7 +6485,7 @@
       </c>
       <c r="B625" s="2">
         <f t="shared" si="13"/>
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -6490,7 +6494,7 @@
       </c>
       <c r="B626" s="2">
         <f t="shared" si="13"/>
-        <v>1.7250000000000001</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -6499,7 +6503,7 @@
       </c>
       <c r="B627" s="2">
         <f t="shared" si="13"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -6508,7 +6512,7 @@
       </c>
       <c r="B628" s="2">
         <f t="shared" si="13"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -6517,7 +6521,7 @@
       </c>
       <c r="B629" s="2">
         <f t="shared" si="13"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -6526,7 +6530,7 @@
       </c>
       <c r="B630" s="2">
         <f t="shared" si="13"/>
-        <v>2.9031250000000002</v>
+        <v>2.6381250000000001</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -6535,7 +6539,7 @@
       </c>
       <c r="B631" s="2">
         <f t="shared" si="13"/>
-        <v>1.48125</v>
+        <v>1.3912499999999999</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -6544,7 +6548,7 @@
       </c>
       <c r="B632" s="2">
         <f t="shared" si="13"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -6553,7 +6557,7 @@
       </c>
       <c r="B633" s="2">
         <f t="shared" si="13"/>
-        <v>3.8781249999999998</v>
+        <v>3.493125</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -6562,7 +6566,7 @@
       </c>
       <c r="B634" s="2">
         <f t="shared" si="13"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -6571,7 +6575,7 @@
       </c>
       <c r="B635" s="2">
         <f t="shared" si="13"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -6580,7 +6584,7 @@
       </c>
       <c r="B636" s="2">
         <f t="shared" si="13"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -6589,7 +6593,7 @@
       </c>
       <c r="B637" s="2">
         <f t="shared" si="13"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -6598,7 +6602,7 @@
       </c>
       <c r="B638" s="2">
         <f t="shared" si="13"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -6607,7 +6611,7 @@
       </c>
       <c r="B639" s="2">
         <f t="shared" si="13"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -6616,7 +6620,7 @@
       </c>
       <c r="B640" s="2">
         <f t="shared" si="13"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -6625,7 +6629,7 @@
       </c>
       <c r="B641" s="2">
         <f t="shared" si="13"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -6634,7 +6638,7 @@
       </c>
       <c r="B642" s="2">
         <f t="shared" si="13"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -6643,7 +6647,7 @@
       </c>
       <c r="B643" s="2">
         <f t="shared" ref="B643:B706" si="14">$E$3+($E$4-$E$3)*(A643-$D$3)/($D$4-$D$3)</f>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -6652,7 +6656,7 @@
       </c>
       <c r="B644" s="2">
         <f t="shared" si="14"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -6661,7 +6665,7 @@
       </c>
       <c r="B645" s="2">
         <f t="shared" si="14"/>
-        <v>3.1468750000000001</v>
+        <v>2.8518750000000002</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -6670,7 +6674,7 @@
       </c>
       <c r="B646" s="2">
         <f t="shared" si="14"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -6679,7 +6683,7 @@
       </c>
       <c r="B647" s="2">
         <f t="shared" si="14"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -6688,7 +6692,7 @@
       </c>
       <c r="B648" s="2">
         <f t="shared" si="14"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -6697,7 +6701,7 @@
       </c>
       <c r="B649" s="2">
         <f t="shared" si="14"/>
-        <v>2.78125</v>
+        <v>2.53125</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -6706,7 +6710,7 @@
       </c>
       <c r="B650" s="2">
         <f t="shared" si="14"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -6715,7 +6719,7 @@
       </c>
       <c r="B651" s="2">
         <f t="shared" si="14"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -6724,7 +6728,7 @@
       </c>
       <c r="B652" s="2">
         <f t="shared" si="14"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -6733,7 +6737,7 @@
       </c>
       <c r="B653" s="2">
         <f t="shared" si="14"/>
-        <v>3.6749999999999998</v>
+        <v>3.3149999999999999</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -6742,7 +6746,7 @@
       </c>
       <c r="B654" s="2">
         <f t="shared" si="14"/>
-        <v>1.8062499999999999</v>
+        <v>1.67625</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -6751,7 +6755,7 @@
       </c>
       <c r="B655" s="2">
         <f t="shared" si="14"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -6760,7 +6764,7 @@
       </c>
       <c r="B656" s="2">
         <f t="shared" si="14"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -6769,7 +6773,7 @@
       </c>
       <c r="B657" s="2">
         <f t="shared" si="14"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -6778,7 +6782,7 @@
       </c>
       <c r="B658" s="2">
         <f t="shared" si="14"/>
-        <v>3.390625</v>
+        <v>3.0656249999999998</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -6787,7 +6791,7 @@
       </c>
       <c r="B659" s="2">
         <f t="shared" si="14"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -6796,7 +6800,7 @@
       </c>
       <c r="B660" s="2">
         <f t="shared" si="14"/>
-        <v>2.8624999999999998</v>
+        <v>2.6025</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -6805,7 +6809,7 @@
       </c>
       <c r="B661" s="2">
         <f t="shared" si="14"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -6814,7 +6818,7 @@
       </c>
       <c r="B662" s="2">
         <f t="shared" si="14"/>
-        <v>2.9437500000000001</v>
+        <v>2.6737500000000001</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -6823,7 +6827,7 @@
       </c>
       <c r="B663" s="2">
         <f t="shared" si="14"/>
-        <v>1.5218750000000001</v>
+        <v>1.4268749999999999</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -6832,7 +6836,7 @@
       </c>
       <c r="B664" s="2">
         <f t="shared" si="14"/>
-        <v>1.684375</v>
+        <v>1.569375</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -6841,7 +6845,7 @@
       </c>
       <c r="B665" s="2">
         <f t="shared" si="14"/>
-        <v>3.59375</v>
+        <v>3.2437499999999999</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -6850,7 +6854,7 @@
       </c>
       <c r="B666" s="2">
         <f t="shared" si="14"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -6859,7 +6863,7 @@
       </c>
       <c r="B667" s="2">
         <f t="shared" si="14"/>
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -6868,7 +6872,7 @@
       </c>
       <c r="B668" s="2">
         <f t="shared" si="14"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -6877,7 +6881,7 @@
       </c>
       <c r="B669" s="2">
         <f t="shared" si="14"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -6886,7 +6890,7 @@
       </c>
       <c r="B670" s="2">
         <f t="shared" si="14"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -6895,7 +6899,7 @@
       </c>
       <c r="B671" s="2">
         <f t="shared" si="14"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -6904,7 +6908,7 @@
       </c>
       <c r="B672" s="2">
         <f t="shared" si="14"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -6913,7 +6917,7 @@
       </c>
       <c r="B673" s="2">
         <f t="shared" si="14"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -6922,7 +6926,7 @@
       </c>
       <c r="B674" s="2">
         <f t="shared" si="14"/>
-        <v>3.1875</v>
+        <v>2.8875000000000002</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -6931,7 +6935,7 @@
       </c>
       <c r="B675" s="2">
         <f t="shared" si="14"/>
-        <v>1.3187500000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -6940,7 +6944,7 @@
       </c>
       <c r="B676" s="2">
         <f t="shared" si="14"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -6949,7 +6953,7 @@
       </c>
       <c r="B677" s="2">
         <f t="shared" si="14"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -6958,7 +6962,7 @@
       </c>
       <c r="B678" s="2">
         <f t="shared" si="14"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -6967,7 +6971,7 @@
       </c>
       <c r="B679" s="2">
         <f t="shared" si="14"/>
-        <v>3.5531250000000001</v>
+        <v>3.2081249999999999</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -6976,7 +6980,7 @@
       </c>
       <c r="B680" s="2">
         <f t="shared" si="14"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -6985,7 +6989,7 @@
       </c>
       <c r="B681" s="2">
         <f t="shared" si="14"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -6994,7 +6998,7 @@
       </c>
       <c r="B682" s="2">
         <f t="shared" si="14"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -7003,7 +7007,7 @@
       </c>
       <c r="B683" s="2">
         <f t="shared" si="14"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -7012,7 +7016,7 @@
       </c>
       <c r="B684" s="2">
         <f t="shared" si="14"/>
-        <v>1.9281250000000001</v>
+        <v>1.7831250000000001</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -7021,7 +7025,7 @@
       </c>
       <c r="B685" s="2">
         <f t="shared" si="14"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -7030,7 +7034,7 @@
       </c>
       <c r="B686" s="2">
         <f t="shared" si="14"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -7039,7 +7043,7 @@
       </c>
       <c r="B687" s="2">
         <f t="shared" si="14"/>
-        <v>3.390625</v>
+        <v>3.0656249999999998</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -7048,7 +7052,7 @@
       </c>
       <c r="B688" s="2">
         <f t="shared" si="14"/>
-        <v>3.2281249999999999</v>
+        <v>2.9231250000000002</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -7057,7 +7061,7 @@
       </c>
       <c r="B689" s="2">
         <f t="shared" si="14"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -7066,7 +7070,7 @@
       </c>
       <c r="B690" s="2">
         <f t="shared" si="14"/>
-        <v>3.4718749999999998</v>
+        <v>3.1368749999999999</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -7075,7 +7079,7 @@
       </c>
       <c r="B691" s="2">
         <f t="shared" si="14"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -7084,7 +7088,7 @@
       </c>
       <c r="B692" s="2">
         <f t="shared" si="14"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -7093,7 +7097,7 @@
       </c>
       <c r="B693" s="2">
         <f t="shared" si="14"/>
-        <v>1.075</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -7102,7 +7106,7 @@
       </c>
       <c r="B694" s="2">
         <f t="shared" si="14"/>
-        <v>1.96875</v>
+        <v>1.8187500000000001</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -7111,7 +7115,7 @@
       </c>
       <c r="B695" s="2">
         <f t="shared" si="14"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -7120,7 +7124,7 @@
       </c>
       <c r="B696" s="2">
         <f t="shared" si="14"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -7129,7 +7133,7 @@
       </c>
       <c r="B697" s="2">
         <f t="shared" si="14"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -7138,7 +7142,7 @@
       </c>
       <c r="B698" s="2">
         <f t="shared" si="14"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -7147,7 +7151,7 @@
       </c>
       <c r="B699" s="2">
         <f t="shared" si="14"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -7156,7 +7160,7 @@
       </c>
       <c r="B700" s="2">
         <f t="shared" si="14"/>
-        <v>0.91249999999999998</v>
+        <v>0.89249999999999996</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -7165,7 +7169,7 @@
       </c>
       <c r="B701" s="2">
         <f t="shared" si="14"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -7174,7 +7178,7 @@
       </c>
       <c r="B702" s="2">
         <f t="shared" si="14"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -7183,7 +7187,7 @@
       </c>
       <c r="B703" s="2">
         <f t="shared" si="14"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -7192,7 +7196,7 @@
       </c>
       <c r="B704" s="2">
         <f t="shared" si="14"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -7201,7 +7205,7 @@
       </c>
       <c r="B705" s="2">
         <f t="shared" si="14"/>
-        <v>2.78125</v>
+        <v>2.53125</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -7210,7 +7214,7 @@
       </c>
       <c r="B706" s="2">
         <f t="shared" si="14"/>
-        <v>2.5375000000000001</v>
+        <v>2.3174999999999999</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -7219,7 +7223,7 @@
       </c>
       <c r="B707" s="2">
         <f t="shared" ref="B707:B761" si="15">$E$3+($E$4-$E$3)*(A707-$D$3)/($D$4-$D$3)</f>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -7228,7 +7232,7 @@
       </c>
       <c r="B708" s="2">
         <f t="shared" si="15"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -7237,7 +7241,7 @@
       </c>
       <c r="B709" s="2">
         <f t="shared" si="15"/>
-        <v>1.15625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -7246,7 +7250,7 @@
       </c>
       <c r="B710" s="2">
         <f t="shared" si="15"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -7255,7 +7259,7 @@
       </c>
       <c r="B711" s="2">
         <f t="shared" si="15"/>
-        <v>3.4312499999999999</v>
+        <v>3.1012499999999998</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -7264,7 +7268,7 @@
       </c>
       <c r="B712" s="2">
         <f t="shared" si="15"/>
-        <v>3.0656249999999998</v>
+        <v>2.7806250000000001</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -7273,7 +7277,7 @@
       </c>
       <c r="B713" s="2">
         <f t="shared" si="15"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -7282,7 +7286,7 @@
       </c>
       <c r="B714" s="2">
         <f t="shared" si="15"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -7291,7 +7295,7 @@
       </c>
       <c r="B715" s="2">
         <f t="shared" si="15"/>
-        <v>2.375</v>
+        <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -7300,7 +7304,7 @@
       </c>
       <c r="B716" s="2">
         <f t="shared" si="15"/>
-        <v>2.2937500000000002</v>
+        <v>2.1037499999999998</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -7309,7 +7313,7 @@
       </c>
       <c r="B717" s="2">
         <f t="shared" si="15"/>
-        <v>2.171875</v>
+        <v>1.996875</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -7318,7 +7322,7 @@
       </c>
       <c r="B718" s="2">
         <f t="shared" si="15"/>
-        <v>3.2281249999999999</v>
+        <v>2.9231250000000002</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -7327,7 +7331,7 @@
       </c>
       <c r="B719" s="2">
         <f t="shared" si="15"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -7336,7 +7340,7 @@
       </c>
       <c r="B720" s="2">
         <f t="shared" si="15"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -7345,7 +7349,7 @@
       </c>
       <c r="B721" s="2">
         <f t="shared" si="15"/>
-        <v>2.2531249999999998</v>
+        <v>2.0681250000000002</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -7354,7 +7358,7 @@
       </c>
       <c r="B722" s="2">
         <f t="shared" si="15"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -7363,7 +7367,7 @@
       </c>
       <c r="B723" s="2">
         <f t="shared" si="15"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -7372,7 +7376,7 @@
       </c>
       <c r="B724" s="2">
         <f t="shared" si="15"/>
-        <v>3.0249999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -7381,7 +7385,7 @@
       </c>
       <c r="B725" s="2">
         <f t="shared" si="15"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -7390,7 +7394,7 @@
       </c>
       <c r="B726" s="2">
         <f t="shared" si="15"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -7399,7 +7403,7 @@
       </c>
       <c r="B727" s="2">
         <f t="shared" si="15"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -7408,7 +7412,7 @@
       </c>
       <c r="B728" s="2">
         <f t="shared" si="15"/>
-        <v>3.390625</v>
+        <v>3.0656249999999998</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -7417,7 +7421,7 @@
       </c>
       <c r="B729" s="2">
         <f t="shared" si="15"/>
-        <v>0.953125</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -7426,7 +7430,7 @@
       </c>
       <c r="B730" s="2">
         <f t="shared" si="15"/>
-        <v>1.1968749999999999</v>
+        <v>1.141875</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -7435,7 +7439,7 @@
       </c>
       <c r="B731" s="2">
         <f t="shared" si="15"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -7444,7 +7448,7 @@
       </c>
       <c r="B732" s="2">
         <f t="shared" si="15"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -7453,7 +7457,7 @@
       </c>
       <c r="B733" s="2">
         <f t="shared" si="15"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -7462,7 +7466,7 @@
       </c>
       <c r="B734" s="2">
         <f t="shared" si="15"/>
-        <v>2.9031250000000002</v>
+        <v>2.6381250000000001</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -7471,7 +7475,7 @@
       </c>
       <c r="B735" s="2">
         <f t="shared" si="15"/>
-        <v>2.4156249999999999</v>
+        <v>2.2106250000000003</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -7480,7 +7484,7 @@
       </c>
       <c r="B736" s="2">
         <f t="shared" si="15"/>
-        <v>1.278125</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -7489,7 +7493,7 @@
       </c>
       <c r="B737" s="2">
         <f t="shared" si="15"/>
-        <v>3.2687499999999998</v>
+        <v>2.9587500000000002</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -7498,7 +7502,7 @@
       </c>
       <c r="B738" s="2">
         <f t="shared" si="15"/>
-        <v>3.3093750000000002</v>
+        <v>2.9943749999999998</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -7507,7 +7511,7 @@
       </c>
       <c r="B739" s="2">
         <f t="shared" si="15"/>
-        <v>1.1156250000000001</v>
+        <v>1.0706249999999999</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -7516,7 +7520,7 @@
       </c>
       <c r="B740" s="2">
         <f t="shared" si="15"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -7525,7 +7529,7 @@
       </c>
       <c r="B741" s="2">
         <f t="shared" si="15"/>
-        <v>2.6593749999999998</v>
+        <v>2.4243749999999999</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -7534,7 +7538,7 @@
       </c>
       <c r="B742" s="2">
         <f t="shared" si="15"/>
-        <v>2.0499999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -7543,7 +7547,7 @@
       </c>
       <c r="B743" s="2">
         <f t="shared" si="15"/>
-        <v>2.4968750000000002</v>
+        <v>2.2818750000000003</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -7561,7 +7565,7 @@
       </c>
       <c r="B745" s="2">
         <f t="shared" si="15"/>
-        <v>3.6749999999999998</v>
+        <v>3.3149999999999999</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -7570,7 +7574,7 @@
       </c>
       <c r="B746" s="2">
         <f t="shared" si="15"/>
-        <v>1.034375</v>
+        <v>0.99937500000000001</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -7579,7 +7583,7 @@
       </c>
       <c r="B747" s="2">
         <f t="shared" si="15"/>
-        <v>3.7562500000000001</v>
+        <v>3.38625</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -7588,7 +7592,7 @@
       </c>
       <c r="B748" s="2">
         <f t="shared" si="15"/>
-        <v>1.8875</v>
+        <v>1.7475000000000001</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -7597,7 +7601,7 @@
       </c>
       <c r="B749" s="2">
         <f t="shared" si="15"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -7606,7 +7610,7 @@
       </c>
       <c r="B750" s="2">
         <f t="shared" si="15"/>
-        <v>2.1312500000000001</v>
+        <v>1.9612499999999999</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -7615,7 +7619,7 @@
       </c>
       <c r="B751" s="2">
         <f t="shared" si="15"/>
-        <v>2.7406250000000001</v>
+        <v>2.495625</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -7624,7 +7628,7 @@
       </c>
       <c r="B752" s="2">
         <f t="shared" si="15"/>
-        <v>2.578125</v>
+        <v>2.3531249999999999</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -7633,7 +7637,7 @@
       </c>
       <c r="B753" s="2">
         <f t="shared" si="15"/>
-        <v>2.0906250000000002</v>
+        <v>1.9256249999999999</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -7642,7 +7646,7 @@
       </c>
       <c r="B754" s="2">
         <f t="shared" si="15"/>
-        <v>2.0093749999999999</v>
+        <v>1.8543750000000001</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -7651,7 +7655,7 @@
       </c>
       <c r="B755" s="2">
         <f t="shared" si="15"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -7660,7 +7664,7 @@
       </c>
       <c r="B756" s="2">
         <f t="shared" si="15"/>
-        <v>1.2375</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -7669,7 +7673,7 @@
       </c>
       <c r="B757" s="2">
         <f t="shared" si="15"/>
-        <v>3.796875</v>
+        <v>3.421875</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -7678,7 +7682,7 @@
       </c>
       <c r="B758" s="2">
         <f t="shared" si="15"/>
-        <v>2.3343750000000001</v>
+        <v>2.1393750000000002</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -7687,7 +7691,7 @@
       </c>
       <c r="B759" s="2">
         <f t="shared" si="15"/>
-        <v>3.1062500000000002</v>
+        <v>2.8162500000000001</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -7696,7 +7700,7 @@
       </c>
       <c r="B760" s="2">
         <f t="shared" si="15"/>
-        <v>2.2124999999999999</v>
+        <v>2.0324999999999998</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -7705,7 +7709,7 @@
       </c>
       <c r="B761" s="2">
         <f t="shared" si="15"/>
-        <v>2.6187499999999999</v>
+        <v>2.3887499999999999</v>
       </c>
     </row>
   </sheetData>
